--- a/data/trans_dic/P16B02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,3%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>53,63; 86,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>33,18; 59,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>52,65; 80,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>58,98; 77,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>59,29; 79,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>51,18; 67,37</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,47%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>56,42; 82,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>55,85; 74,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>46,66; 68,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>85,87; 95,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>67,94; 81,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>67,19; 81,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>78,96; 90,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>66,55; 77,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>62,74; 75,09</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,66%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>68,28; 94,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>73,01; 90,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>59,66; 81,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>80,56; 93,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>79,38; 93,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>70,47; 85,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>80,09; 91,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>80,05; 90,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>68,97; 82,36</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,62%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>67,98; 89,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>59,51; 77,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>62,82; 80,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>76,44; 92,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>72,34; 83,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>74,05; 86,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>76,32; 89,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>70,04; 79,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>72,07; 82,78</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,69%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>56,66; 89,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>80,64; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>67,02; 96,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>51,03; 77,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>72,58; 88,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>75,73; 93,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>57,43; 78,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>77,32; 89,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>77,07; 92,26</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,14%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>61,91; 89,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>68,72; 90,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>75,84; 97,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>69,59; 89,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>74,07; 88,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>76,56; 94,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>70,84; 86,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>75,72; 88,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>79,45; 93,04</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,09%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,48%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>70,8; 87,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>69,19; 85,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>48,75; 69,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>83,14; 94,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>75,34; 85,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>62,87; 77,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>80,54; 90,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>75,33; 84,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>60,25; 72,86</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,11%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>70,26; 83,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>70,6; 86,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>59,86; 74,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>75,47; 86,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>69,92; 80,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>64,95; 76,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>76,23; 84,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>71,6; 81,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>65,36; 74,64</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,23%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>73,01; 81,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>72,25; 79,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>62,79; 70,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>81,01; 86,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>76,85; 81,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>72,86; 78,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>79,53; 83,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>76,03; 80,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>70,04; 74,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,96; 76,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,11; 84,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,65; 78,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>72,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>77,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,51; 77,01</t>
+          <t>61,28; 83,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,34; 83,36</t>
+          <t>71,86; 86,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,04; 79,88</t>
+          <t>71,31; 83,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,63; 86,04</t>
+          <t>55,94; 86,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,96; 76,44</t>
+          <t>48,18; 78,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,18; 59,86</t>
+          <t>33,45; 59,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,65; 80,44</t>
+          <t>53,76; 81,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,11; 84,09</t>
+          <t>62,81; 84,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,98; 77,33</t>
+          <t>57,86; 77,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,29; 79,24</t>
+          <t>58,11; 79,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,65; 78,33</t>
+          <t>61,18; 78,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,18; 67,37</t>
+          <t>51,07; 66,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,42; 82,41</t>
+          <t>55,11; 82,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,85; 74,77</t>
+          <t>55,13; 74,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,66; 68,95</t>
+          <t>45,54; 66,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,87; 95,69</t>
+          <t>85,71; 96,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,94; 81,43</t>
+          <t>66,4; 81,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,19; 81,35</t>
+          <t>67,13; 81,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,96; 90,56</t>
+          <t>78,97; 90,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,55; 77,22</t>
+          <t>65,9; 77,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,74; 75,09</t>
+          <t>62,19; 73,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,28; 94,18</t>
+          <t>67,33; 91,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,01; 90,59</t>
+          <t>73,09; 90,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,66; 81,61</t>
+          <t>60,76; 81,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,56; 93,76</t>
+          <t>80,95; 93,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,38; 93,63</t>
+          <t>80,52; 93,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,47; 85,73</t>
+          <t>70,04; 86,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,09; 91,65</t>
+          <t>79,47; 91,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,05; 90,75</t>
+          <t>80,21; 90,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,97; 82,36</t>
+          <t>69,75; 82,88</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,98; 89,54</t>
+          <t>67,72; 90,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,28; 83,34</t>
+          <t>61,01; 82,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,82; 80,44</t>
+          <t>63,5; 81,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,44; 92,02</t>
+          <t>74,85; 91,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,86; 86,05</t>
+          <t>72,29; 86,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,05; 86,17</t>
+          <t>73,25; 85,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,32; 89,3</t>
+          <t>76,64; 89,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,31; 83,29</t>
+          <t>71,49; 82,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,07; 82,78</t>
+          <t>72,31; 82,68</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,66; 89,31</t>
+          <t>55,94; 88,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,64; 100,0</t>
+          <t>78,91; 97,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,02; 96,21</t>
+          <t>64,42; 96,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,03; 77,95</t>
+          <t>51,57; 78,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,58; 88,47</t>
+          <t>72,0; 88,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>75,73; 93,05</t>
+          <t>76,22; 93,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,43; 78,62</t>
+          <t>57,2; 78,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,32; 89,79</t>
+          <t>76,6; 89,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,07; 92,26</t>
+          <t>76,25; 91,79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,91; 89,31</t>
+          <t>60,49; 87,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,72; 90,66</t>
+          <t>68,2; 90,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,84; 97,45</t>
+          <t>76,52; 97,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,59; 89,99</t>
+          <t>70,68; 90,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>74,07; 88,96</t>
+          <t>75,0; 89,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,56; 94,05</t>
+          <t>76,94; 93,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,84; 86,91</t>
+          <t>71,43; 86,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>75,72; 88,13</t>
+          <t>75,28; 88,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,45; 93,04</t>
+          <t>79,96; 93,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,8; 87,9</t>
+          <t>70,68; 87,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,19; 85,64</t>
+          <t>68,91; 86,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,75; 69,93</t>
+          <t>49,01; 69,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,14; 94,13</t>
+          <t>83,5; 94,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>75,34; 85,82</t>
+          <t>75,04; 85,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,87; 77,94</t>
+          <t>62,16; 77,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>80,54; 90,84</t>
+          <t>81,28; 90,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>75,33; 84,01</t>
+          <t>74,83; 83,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>60,25; 72,86</t>
+          <t>60,09; 72,71</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,26; 83,87</t>
+          <t>70,24; 85,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>70,6; 86,62</t>
+          <t>69,72; 86,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,86; 74,67</t>
+          <t>60,06; 75,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,47; 86,86</t>
+          <t>76,39; 86,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>69,92; 80,15</t>
+          <t>69,42; 80,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,95; 76,6</t>
+          <t>65,22; 77,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>76,23; 84,42</t>
+          <t>75,8; 84,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>71,6; 81,0</t>
+          <t>71,81; 81,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>65,36; 74,64</t>
+          <t>65,5; 74,96</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>73,01; 81,26</t>
+          <t>73,66; 81,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>72,25; 79,64</t>
+          <t>72,43; 79,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>62,79; 70,37</t>
+          <t>62,87; 70,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>81,01; 86,11</t>
+          <t>81,03; 86,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>76,85; 81,57</t>
+          <t>76,92; 81,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>72,86; 78,19</t>
+          <t>72,8; 78,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>79,53; 83,62</t>
+          <t>79,45; 83,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>76,03; 80,23</t>
+          <t>76,26; 80,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>70,04; 74,43</t>
+          <t>69,88; 74,22</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26011</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30036</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28646</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31442</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54727</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>63796</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>57452</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>84763</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>92442</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19999; 30887</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22944; 37226</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20879; 37097</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25061; 38219</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>45826; 61536</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>54085; 72150</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47864; 65647</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73773; 94383</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>79614; 104131</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32979</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>70075</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>48871</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>101502</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>136529</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>113653</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>134480</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>206604</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>162524</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25893; 38709</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58458; 79399</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38672; 56770</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>94638; 106299</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>120483; 147873</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>102348; 124099</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>124289; 142511</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>189445; 222356</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>147627; 175551</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27641</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59257</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45042</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>84525</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96349</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>86179</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>112166</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>155606</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>131221</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22495; 30680</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>51792; 64288</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37991; 51089</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>77910; 89689</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>88593; 103115</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>76097; 94173</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>103042; 118586</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>145103; 164391</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>119398; 141868</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43480</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53218</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>75221</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>70115</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>126365</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>141114</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>113595</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>179584</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>216335</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36218; 48234</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44589; 60615</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>65594; 84406</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>61623; 75537</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>114126; 136487</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>128486; 150335</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>104083; 121128</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>165118; 191189</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>201529; 230448</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21712</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33051</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24088</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34444</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>79145</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>55079</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>56156</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>112196</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>79167</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16135; 25634</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28329; 35106</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18320; 27348</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27042; 41222</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>70197; 86138</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>48745; 59880</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46492; 64151</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>102186; 119230</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>70445; 84808</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>27807</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>43255</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>34766</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>55047</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>88059</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>59699</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>82854</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>131315</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>94465</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22022; 31746</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>36146; 48038</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>29716; 37770</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>47734; 61210</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>79353; 95002</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>52579; 64216</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>74244; 90104</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>119562; 140387</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>85700; 99860</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>68905</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>86244</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>57275</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>119827</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>181806</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>104110</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>188733</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>268050</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>161385</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>60617; 75261</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>76070; 95159</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>46676; 66051</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>111298; 125680</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>168329; 192213</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>91690; 114113</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>178038; 198577</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>250452; 280337</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>145857; 176504</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>101389</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>88116</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>106722</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>174054</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>178807</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>193769</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>275443</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>266923</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>300491</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>91599; 111542</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>77111; 96098</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>93977; 117537</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>161854; 184152</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>164545; 191232</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>177464; 210161</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>259450; 289846</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>249659; 282008</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>280717; 321266</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>349926</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>463252</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>420634</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>670954</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>941789</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>817400</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1020879</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1405041</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1238033</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>332239; 367078</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>440023; 484127</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>397435; 446507</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>648815; 690276</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>913062; 967251</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>787612; 845204</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>994504; 1049751</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1368424; 1437696</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1197764; 1272209</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>